--- a/biology/Médecine/Gustave_Bouchereau/Gustave_Bouchereau.xlsx
+++ b/biology/Médecine/Gustave_Bouchereau/Gustave_Bouchereau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Gustave Bouchereau, né le 20 juin 1835 à Montrichard et mort le 22 février 1900 à Paris, est un psychiatre français[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Gustave Bouchereau, né le 20 juin 1835 à Montrichard et mort le 22 février 1900 à Paris, est un psychiatre français. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gustave Bouchereau étudie la médecine à Paris, devient externe des hôpitaux en 1859 et interne en 1863. A Paris il a comme professeurs Jean-Pierre Falret, Jules Baillarger, Jean-Martin Charcot et Alfred Vulpian. En 1866, il obtient son doctorat en médecine avec une thèse sur l'hémiplégie, Des hémiplégies anciennes. Peu de temps après, il est co-nommé avec Valentin Magnan (1835-1916) à l'asile Sainte-Anne à Paris[2]. 
-En 1879, il succède à Prosper Lucas comme surintendant de la division des femmes à Sainte-Anne[3].
-Bouchereau a servi dans un hôpital de campagne pendant la guerre franco-prussienne. Il est blessé à la bataille de Châtillon et décoré de la Légion d'honneur pour bravoure et dévouement. En 1871, il devient membre de la Société médico-psychologique de Paris, dont il est élu président en 1891. Il est secrétaire général de l'Association mutuelle des médecins aliénistes de France[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustave Bouchereau étudie la médecine à Paris, devient externe des hôpitaux en 1859 et interne en 1863. A Paris il a comme professeurs Jean-Pierre Falret, Jules Baillarger, Jean-Martin Charcot et Alfred Vulpian. En 1866, il obtient son doctorat en médecine avec une thèse sur l'hémiplégie, Des hémiplégies anciennes. Peu de temps après, il est co-nommé avec Valentin Magnan (1835-1916) à l'asile Sainte-Anne à Paris. 
+En 1879, il succède à Prosper Lucas comme surintendant de la division des femmes à Sainte-Anne.
+Bouchereau a servi dans un hôpital de campagne pendant la guerre franco-prussienne. Il est blessé à la bataille de Châtillon et décoré de la Légion d'honneur pour bravoure et dévouement. En 1871, il devient membre de la Société médico-psychologique de Paris, dont il est élu président en 1891. Il est secrétaire général de l'Association mutuelle des médecins aliénistes de France.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1872 : Statistique des malades entrés en 1870 et en 1871 au bureau d'admission des aliénés de la Seine, avec Valentin Magnan, Paris : Impr. de E. Donnaud</t>
         </is>
